--- a/risultati.xlsx
+++ b/risultati.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\GitHub\Ricerca_Operativa_2022\Ricerca_Operativa_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B3A86C-DFBE-4791-B149-1F51EB6E3511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F68E60-61C4-4597-9445-78C26A31A9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6975" yWindow="2190" windowWidth="15000" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="15" windowWidth="15000" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
   <si>
     <t>Test 1</t>
   </si>
@@ -198,7 +198,13 @@
     <t>Std. Dev.</t>
   </si>
   <si>
-    <t>S. AnnealF1:H44ing</t>
+    <t>Tempi esecuzione</t>
+  </si>
+  <si>
+    <t>S. Annealing</t>
+  </si>
+  <si>
+    <t>[s]</t>
   </si>
 </sst>
 </file>
@@ -557,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -583,7 +589,7 @@
         <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -2023,6 +2029,233 @@
       </c>
       <c r="J54" s="6" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="4">
+        <v>100</v>
+      </c>
+      <c r="C62" s="4">
+        <v>5</v>
+      </c>
+      <c r="E62" s="4">
+        <v>3.2670145034790039</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1.8723535537719702E-2</v>
+      </c>
+      <c r="G62" s="4">
+        <v>5.8633089065551758E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="4">
+        <v>200</v>
+      </c>
+      <c r="C63" s="4">
+        <v>10</v>
+      </c>
+      <c r="E63" s="4">
+        <v>4.3928186893463135</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.110237336158752</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0.19547271728515625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="4">
+        <v>500</v>
+      </c>
+      <c r="C64" s="4">
+        <v>5</v>
+      </c>
+      <c r="E64" s="4">
+        <v>9.167513370513916</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0.125054287910461</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0.47321462631225586</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="4">
+        <v>500</v>
+      </c>
+      <c r="C65" s="4">
+        <v>10</v>
+      </c>
+      <c r="E65" s="4">
+        <v>12.725345373153687</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0.29742503166198703</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0.69463253021240234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C66" s="4">
+        <v>5</v>
+      </c>
+      <c r="E66" s="4">
+        <v>17.171645402908325</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0.30878055095672602</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1.1234118938446045</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C67" s="4">
+        <v>10</v>
+      </c>
+      <c r="E67" s="4">
+        <v>25.911470174789429</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0.966174221038818</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1.8341853618621826</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C68" s="4">
+        <v>5</v>
+      </c>
+      <c r="E68" s="4">
+        <v>24.92037558555603</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0.39310483932495099</v>
+      </c>
+      <c r="G68" s="4">
+        <v>2.9054567813873291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C69" s="4">
+        <v>5</v>
+      </c>
+      <c r="E69" s="4">
+        <v>38.946172714233398</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0.62411172389984104</v>
+      </c>
+      <c r="G69" s="4">
+        <v>3.7296807765960693</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C70" s="4">
+        <v>5</v>
+      </c>
+      <c r="E70" s="4">
+        <v>75.747957229614258</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1.3269600868225</v>
+      </c>
+      <c r="G70" s="4">
+        <v>8.9110403060913086</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C71" s="4">
+        <v>5</v>
+      </c>
+      <c r="E71" s="4">
+        <v>127.55579686164856</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2.49189586639404</v>
+      </c>
+      <c r="G71" s="4">
+        <v>52.510732412338257</v>
       </c>
     </row>
   </sheetData>
